--- a/gd/主界面/功能开启设计.xlsx
+++ b/gd/主界面/功能开启设计.xlsx
@@ -16,545 +16,586 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
   <si>
     <t>分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1. 游戏初始就有的，不需要特殊开启功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>UI入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3D入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>3D+UI入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>碎片合成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有宠物</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物穿装备</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物吃经验药</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>2. 游戏初始没有开放，需要开启功能配合</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物升阶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>入口类型</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>项目内功能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>图鉴列表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>开启功能分类</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>弹出IM提示信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001（需向该提示信息传递开启等级的参数）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>该功能X级开启</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>装备开孔、镶嵌宝石</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>比如</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>点击“打造”切页标签，若玩家等级未达到功能开启等级，则不会切到对应功能面板，而是弹出IM提示信息</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能描述</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>具体功能及对应提示见下表</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物提升技能</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物详细属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备详细属性</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>普通副本入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对局外</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>集火</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对局内（指从副本选择到副本结算整个流程）</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>对局战斗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>副本进入及副本难度选择的提示逻辑遵循文档《副本选择设计》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>换宠</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>换宠功能未开启时，点击宠物不会弹出换宠UI，无反馈</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>点击宠物不会弹出换宠UI，无反馈</t>
   </si>
   <si>
     <t>自动战斗</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>——</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>扫荡</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>宠物槽提示逻辑遵循文档《阵容选择设计》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>注意扫荡功能还存在自身在开启后的使用逻辑，详见《阵容选择设计》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>场景buff</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>经验试炼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>金币试炼</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>IM聊天</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其中的公会聊天频道需要加入公会才能使用，提示逻辑见《IM系统设计》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>充值</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>普通商店</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>1：是指普通商店的UI入口；3：是指普通商店的3D入口</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>其他商店（比如公会商店、通天塔商店等）在主界面没有入口，在对应功能界面才有入口，但可以通过商店间切换到其他商店，切换逻辑见《商店系统设计》</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>装备强化、进阶</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能未开启时，功能图标/功能入口不用隐藏且该图标/入口，点击时，不会切到/打开对应功能面板，而会弹出相应IM提示</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1+2</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>备注：其他未设计功能等到设计时，需要补充开启需求</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现方式：</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标隐藏，开启后图标出现</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应UI图标首先出现在屏幕中央，伴随一个特效，持续2s，然后图标飞到其在主界面的固定位置，伴随一个拖尾特效</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>类似效果</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.0.1</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>功能开启设计</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>规划功能开启需求</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">svn://10.21.2.47/gd/主界面/功能开启设计.xlsx
 </t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3D未开启的时候怎么显示，点了有提示么？</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归测试问题</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验和金币试炼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能未开启时，功能图标/功能入口不用隐藏，点击时，不会切到/打开对应功能面板，而会弹出相应IM提示</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能未开启时，功能图标/功能入口不用隐藏且该图标/入口，点击时无反馈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>出现表现待设计</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击无反馈</t>
+    <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -648,7 +689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -667,6 +708,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -888,135 +935,147 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1024,8 +1083,21 @@
     <cellStyle name="常规 2 2 2" xfId="2"/>
     <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1041,16 +1113,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>123962</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1069,44 +1141,6 @@
         <a:xfrm>
           <a:off x="2062370" y="1863587"/>
           <a:ext cx="2683565" cy="538093"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>637762</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>124773</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2749827" y="1242391"/>
-          <a:ext cx="2418522" cy="1367165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:S26"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1420,10 +1454,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
@@ -1458,10 +1492,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
@@ -1496,10 +1530,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
@@ -1534,10 +1568,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="26"/>
@@ -1589,7 +1623,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -1608,17 +1642,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
-      <c r="B11" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="28"/>
-      <c r="D11" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="30"/>
+      <c r="B11" s="43" t="s">
+        <v>96</v>
+      </c>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45" t="s">
+        <v>97</v>
+      </c>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="45"/>
+      <c r="H11" s="46"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1629,15 +1663,15 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
-      <c r="B12" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="34"/>
+      <c r="B12" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="C12" s="28"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="40"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1648,17 +1682,17 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
-      <c r="B13" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="36"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="38"/>
+      <c r="B13" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
+      <c r="H13" s="49"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -1669,15 +1703,15 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
-      <c r="B14" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40"/>
-      <c r="H14" s="41"/>
+      <c r="B14" s="27" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="28"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="52"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1688,15 +1722,15 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
-      <c r="B15" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
+      <c r="B15" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="39"/>
+      <c r="E15" s="39"/>
+      <c r="F15" s="39"/>
+      <c r="G15" s="39"/>
+      <c r="H15" s="40"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1707,15 +1741,15 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
-      <c r="B16" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
+      <c r="B16" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="29"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
+      <c r="H16" s="40"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1726,15 +1760,15 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
-      <c r="B17" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="34"/>
+      <c r="B17" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="39"/>
+      <c r="E17" s="39"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="39"/>
+      <c r="H17" s="40"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -1745,15 +1779,15 @@
     </row>
     <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
-      <c r="B18" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C18" s="43"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="45"/>
+      <c r="B18" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -1781,25 +1815,25 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="F20" s="22" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -1830,19 +1864,19 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="46">
+        <v>113</v>
+      </c>
+      <c r="C22" s="32">
         <v>42416</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="F22" s="22" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="21"/>
@@ -1857,12 +1891,18 @@
     <row r="23" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A23" s="20"/>
       <c r="B23" s="21"/>
-      <c r="C23" s="46"/>
+      <c r="C23" s="32">
+        <v>42417</v>
+      </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
+      <c r="E23" s="36"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="21"/>
+      <c r="G23" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="21" t="s">
+        <v>127</v>
+      </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
       <c r="K23" s="21"/>
@@ -1872,21 +1912,11 @@
       <c r="O23" s="21"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A24" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>125</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>127</v>
-      </c>
-      <c r="E24" s="22" t="s">
-        <v>128</v>
-      </c>
+      <c r="A24" s="20"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
       <c r="H24" s="21"/>
@@ -1897,14 +1927,41 @@
       <c r="M24" s="21"/>
       <c r="N24" s="21"/>
       <c r="O24" s="21"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B25" s="21"/>
-      <c r="C25" s="46"/>
+      <c r="A25" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+      <c r="J25" s="21"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="21"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="21"/>
+      <c r="O25" s="21"/>
+      <c r="P25" s="33"/>
+      <c r="Q25" s="33"/>
+      <c r="R25" s="33"/>
+      <c r="S25" s="33"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B26" s="21"/>
+      <c r="C26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1918,667 +1975,622 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K79"/>
+  <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="I63" sqref="I63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="34.875" style="1" customWidth="1"/>
+    <col min="2" max="5" width="9" style="1"/>
+    <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="9" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="2">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I3" s="17"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C4" s="1" t="s">
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="17"/>
+      <c r="I4" s="17"/>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D5" s="53" t="s">
+        <v>132</v>
+      </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="C6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>96</v>
-      </c>
+      <c r="I5" s="17"/>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D7" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B14" s="2">
+      <c r="I6" s="17"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="D7" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C13" s="54">
+        <v>3</v>
+      </c>
+      <c r="D13" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C15" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="2" t="s">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="C18" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="2" t="s">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="D19" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D25" s="2" t="s">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E20" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="H20" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D26" s="1" t="s">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E27" s="1" t="s">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F22" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="G22" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="G23" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F24" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F26" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F27" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F28" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E29" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="D30" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F30" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="F31" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="E32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="G33" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="G35" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="G36" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="G37" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F38" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="D40" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E42" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F43" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F44" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="F45" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E46" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
+      <c r="E47" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C49" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D50" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E51" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K51" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" s="1">
+        <v>8</v>
+      </c>
+      <c r="I52" s="1">
         <v>3</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="E32" s="1" t="s">
+      <c r="J52" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H53" s="1">
+        <v>12</v>
+      </c>
+      <c r="I53" s="1">
+        <v>3</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F54" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H54" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I54" s="1">
+        <v>3</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H55" s="1">
+        <v>24</v>
+      </c>
+      <c r="I55" s="1">
+        <v>3</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F56" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H56" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I56" s="1">
+        <v>3</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="33" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E33" s="1" t="s">
+      <c r="H57" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I57" s="1">
+        <v>1</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F58" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="35" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E35" s="1" t="s">
+      <c r="H58" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I58" s="1">
+        <v>1</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H59" s="1">
+        <v>6</v>
+      </c>
+      <c r="I59" s="1">
+        <v>2</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G60" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H60" s="1">
+        <v>8</v>
+      </c>
+      <c r="I60" s="1">
+        <v>2</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G61" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H61" s="1">
+        <v>20</v>
+      </c>
+      <c r="I61" s="1">
+        <v>2</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="G62" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F63" s="1" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="36" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E36" s="1" t="s">
+      <c r="H63" s="1">
+        <v>8</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="37" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="D37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="K64" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="D66" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J67" s="19"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G68" s="1">
         <v>6</v>
       </c>
-      <c r="F37" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F38" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F39" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="40" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F40" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="41" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F41" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="42" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="F42" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E43" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="C45" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="46" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="D46" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="D47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="3:7" x14ac:dyDescent="0.35">
-      <c r="E48" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E49" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E50" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D51" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D52" s="1" t="s">
+      <c r="H68" s="1">
+        <v>1</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L68" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="69" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="F69" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69" s="17">
+        <v>6</v>
+      </c>
+      <c r="H69" s="17">
+        <v>2</v>
+      </c>
+      <c r="I69" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="J69" s="12"/>
+      <c r="K69" s="12"/>
+    </row>
+    <row r="70" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="E70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B54" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C55" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D56" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D57" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="F70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G70" s="1">
         <v>8</v>
       </c>
-      <c r="H57" s="1">
-        <v>2</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E58" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" s="1">
-        <v>8</v>
-      </c>
-      <c r="H58" s="1">
-        <v>2</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E59" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G59" s="1">
-        <v>12</v>
-      </c>
-      <c r="H59" s="1">
-        <v>2</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E60" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H60" s="1">
-        <v>2</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E61" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G61" s="1">
-        <v>24</v>
-      </c>
-      <c r="H61" s="1">
-        <v>2</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E62" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G62" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H62" s="1">
-        <v>2</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D63" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G63" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H63" s="1">
+      <c r="H70" s="1">
         <v>1</v>
       </c>
-      <c r="I63" s="1" t="s">
+      <c r="I70" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E64" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G64" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H64" s="1">
-        <v>1</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E65" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="L70" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C73" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="G65" s="1">
-        <v>6</v>
-      </c>
-      <c r="H65" s="1">
-        <v>2</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="F66" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G66" s="1">
-        <v>8</v>
-      </c>
-      <c r="H66" s="1">
-        <v>2</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="F67" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="G67" s="1">
-        <v>20</v>
-      </c>
-      <c r="H67" s="1">
-        <v>2</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="F68" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G68" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H68" s="1">
-        <v>2</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E69" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="G69" s="1">
-        <v>8</v>
-      </c>
-      <c r="H69" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J69" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="J70" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="C72" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D73" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
-      <c r="K73" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D74" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E74" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F74" s="1">
-        <v>6</v>
-      </c>
-      <c r="G74" s="1">
-        <v>1</v>
-      </c>
-      <c r="H74" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="E75" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F75" s="17">
-        <v>6</v>
-      </c>
-      <c r="G75" s="17">
-        <v>2</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="I75" s="12"/>
-      <c r="J75" s="12"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="D76" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E76" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F76" s="1">
-        <v>8</v>
-      </c>
-      <c r="G76" s="1">
-        <v>1</v>
-      </c>
-      <c r="H76" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="K76" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B79" s="1" t="s">
-        <v>93</v>
-      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="A52">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A52))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -2587,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2669,7 +2681,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>40</v>
@@ -2691,24 +2703,20 @@
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="13"/>
+      <c r="A4" s="14"/>
       <c r="B4" s="14"/>
-      <c r="C4" s="13" t="s">
-        <v>37</v>
-      </c>
+      <c r="C4" s="14"/>
       <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="16">
-        <v>1</v>
-      </c>
+      <c r="I4" s="16"/>
       <c r="J4" s="16"/>
       <c r="K4" s="16"/>
     </row>
     <row r="5" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="13"/>
+      <c r="A5" s="14"/>
       <c r="B5" s="14"/>
       <c r="C5" s="14"/>
       <c r="D5" s="14"/>
@@ -2716,9 +2724,7 @@
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="16">
-        <v>1</v>
-      </c>
+      <c r="I5" s="16"/>
       <c r="J5" s="16"/>
       <c r="K5" s="16"/>
     </row>
@@ -2787,31 +2793,31 @@
       <c r="J10" s="16"/>
       <c r="K10" s="16"/>
     </row>
-    <row r="11" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-    </row>
-    <row r="12" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-      <c r="J12" s="16"/>
-      <c r="K12" s="16"/>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
@@ -2839,34 +2845,8 @@
       <c r="J14" s="15"/>
       <c r="K14" s="15"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A15" s="13"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/功能开启设计.xlsx
+++ b/gd/主界面/功能开启设计.xlsx
@@ -4,540 +4,541 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
     <sheet name="开启功能" sheetId="1" r:id="rId2"/>
     <sheet name="提示信息" sheetId="2" r:id="rId3"/>
+    <sheet name="任务拆分" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
   <si>
     <t>分类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1. 游戏初始就有的，不需要特殊开启功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>UI入口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D入口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D+UI入口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>碎片合成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有宠物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物穿装备</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物吃经验药</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>2. 游戏初始没有开放，需要开启功能配合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物升阶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>入口类型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>项目内功能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>图鉴列表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>开启功能分类</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>弹出IM提示信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="10" type="noConversion"/>
+    <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001（需向该提示信息传递开启等级的参数）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>该功能X级开启</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>装备开孔、镶嵌宝石</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>比如</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击“打造”切页标签，若玩家等级未达到功能开启等级，则不会切到对应功能面板，而是弹出IM提示信息</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能描述</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>具体功能及对应提示见下表</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物提升技能</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物详细属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备详细属性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通副本入口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对局外</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>集火</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对局内（指从副本选择到副本结算整个流程）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>对局战斗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>副本进入及副本难度选择的提示逻辑遵循文档《副本选择设计》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>换宠</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>换宠功能未开启时，点击宠物不会弹出换宠UI，无反馈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击宠物不会弹出换宠UI，无反馈</t>
   </si>
   <si>
     <t>自动战斗</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>——</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>扫荡</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>宠物槽提示逻辑遵循文档《阵容选择设计》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>注意扫荡功能还存在自身在开启后的使用逻辑，详见《阵容选择设计》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>场景buff</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>IM聊天</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其中的公会聊天频道需要加入公会才能使用，提示逻辑见《IM系统设计》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>充值</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>普通商店</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>1：是指普通商店的UI入口；3：是指普通商店的3D入口</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>其他商店（比如公会商店、通天塔商店等）在主界面没有入口，在对应功能界面才有入口，但可以通过商店间切换到其他商店，切换逻辑见《商店系统设计》</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>装备强化、进阶</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>备注：其他未设计功能等到设计时，需要补充开启需求</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标隐藏，开启后图标出现</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.0.1</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>功能开启设计</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>规划功能开启需求</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">svn://10.21.2.47/gd/主界面/功能开启设计.xlsx
 </t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>3D未开启的时候怎么显示，点了有提示么？</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>回归测试问题</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>经验和金币试炼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标/功能入口不用隐藏，点击时，不会切到/打开对应功能面板，而会弹出相应IM提示</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标/功能入口不用隐藏且该图标/入口，点击时无反馈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -553,28 +554,66 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>出现表现待设计</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>点击无反馈</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>对应工时（单位：d）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>程序</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>2016.2.19</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能框架+IM提示</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归任务拆分</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -689,7 +728,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -714,6 +753,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -935,147 +980,150 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1439,10 +1487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S26"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1642,17 +1690,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
-      <c r="B11" s="43" t="s">
+      <c r="B11" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45" t="s">
+      <c r="C11" s="50"/>
+      <c r="D11" s="51" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="52"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1667,11 +1715,11 @@
         <v>98</v>
       </c>
       <c r="C12" s="28"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="40"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="46"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1688,11 +1736,11 @@
       <c r="C13" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="49"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="55"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -1707,11 +1755,11 @@
         <v>101</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="52"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="57"/>
+      <c r="H14" s="58"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1726,11 +1774,11 @@
         <v>102</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="40"/>
+      <c r="D15" s="45"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="46"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1745,11 +1793,11 @@
         <v>103</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="40"/>
+      <c r="D16" s="45"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="46"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1764,11 +1812,11 @@
         <v>104</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="40"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="46"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -1783,11 +1831,11 @@
         <v>105</v>
       </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="48"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -1914,12 +1962,18 @@
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A24" s="20"/>
       <c r="B24" s="21"/>
-      <c r="C24" s="32"/>
+      <c r="C24" s="32">
+        <v>42419</v>
+      </c>
       <c r="D24" s="22"/>
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="21"/>
+      <c r="G24" s="22" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="21" t="s">
+        <v>139</v>
+      </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
       <c r="K24" s="21"/>
@@ -1929,21 +1983,11 @@
       <c r="O24" s="21"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A25" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E25" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
       <c r="H25" s="21"/>
@@ -1954,14 +1998,41 @@
       <c r="M25" s="21"/>
       <c r="N25" s="21"/>
       <c r="O25" s="21"/>
-      <c r="P25" s="33"/>
-      <c r="Q25" s="33"/>
-      <c r="R25" s="33"/>
-      <c r="S25" s="33"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B26" s="21"/>
-      <c r="C26" s="32"/>
+      <c r="A26" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+      <c r="J26" s="21"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="21"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="21"/>
+      <c r="O26" s="21"/>
+      <c r="P26" s="33"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="33"/>
+      <c r="S26" s="33"/>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B27" s="21"/>
+      <c r="C27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -1975,7 +2046,7 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1984,8 +2055,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L73"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I63" sqref="I63"/>
+    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2033,7 +2104,7 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="39" t="s">
         <v>132</v>
       </c>
       <c r="E5" s="17"/>
@@ -2066,10 +2137,10 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C13" s="54">
+      <c r="C13" s="40">
         <v>3</v>
       </c>
-      <c r="D13" s="54" t="s">
+      <c r="D13" s="40" t="s">
         <v>130</v>
       </c>
       <c r="E13" s="37"/>
@@ -2326,7 +2397,7 @@
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="55" t="s">
+      <c r="A53" s="41" t="s">
         <v>133</v>
       </c>
       <c r="F53" s="1" t="s">
@@ -2585,7 +2656,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="A52">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A52))&gt;0</formula>
@@ -2846,7 +2917,48 @@
       <c r="K14" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="42"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="43" t="s">
+        <v>136</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="L2" s="44"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="42">
+        <v>1.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/功能开启设计.xlsx
+++ b/gd/主界面/功能开启设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -12,12 +12,15 @@
     <sheet name="提示信息" sheetId="2" r:id="rId3"/>
     <sheet name="任务拆分" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <definedNames>
+    <definedName name="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能">开启功能!$C$74</definedName>
+  </definedNames>
+  <calcPr calcId="122211" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
   <si>
     <t>分类</t>
     <phoneticPr fontId="9" type="noConversion"/>
@@ -276,10 +279,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>扫荡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>宠物槽提示逻辑遵循文档《阵容选择设计》</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -369,10 +368,6 @@
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注：其他未设计功能等到设计时，需要补充开启需求</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -588,12 +583,58 @@
     <t>回归任务拆分</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
+  <si>
+    <t>扫荡多次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫荡一次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>将扫荡功能拆分成扫荡一次和扫荡多次</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>备注：1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>其他未设计功能等到设计时，需要补充开启需求</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">           2. 注意各个商店功能开启等级顺序要与商店切换顺序一致（商店已定的功能）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充各个商店功能开启等级顺序要与商店切换顺序一致的备注（商店已定的功能）</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -727,8 +768,24 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +816,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3399FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -978,7 +1041,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
@@ -989,8 +1052,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1124,11 +1188,19 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2 2" xfId="1"/>
     <cellStyle name="常规 2 2 2" xfId="2"/>
+    <cellStyle name="超链接" xfId="4" builtinId="8"/>
     <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
   <dxfs count="1">
@@ -1487,10 +1559,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1502,10 +1574,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
@@ -1540,10 +1612,10 @@
     </row>
     <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C3" s="21"/>
       <c r="D3" s="22"/>
@@ -1578,10 +1650,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C5" s="21"/>
       <c r="D5" s="22"/>
@@ -1616,10 +1688,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C7" s="21"/>
       <c r="D7" s="26"/>
@@ -1671,7 +1743,7 @@
     </row>
     <row r="10" spans="1:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B10" s="21"/>
       <c r="C10" s="22"/>
@@ -1691,11 +1763,11 @@
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
       <c r="B11" s="49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C11" s="50"/>
       <c r="D11" s="51" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E11" s="51"/>
       <c r="F11" s="51"/>
@@ -1712,7 +1784,7 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" s="20"/>
       <c r="B12" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C12" s="28"/>
       <c r="D12" s="45"/>
@@ -1731,10 +1803,10 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" s="20"/>
       <c r="B13" s="27" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C13" s="29" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="54"/>
@@ -1752,7 +1824,7 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C14" s="28"/>
       <c r="D14" s="56"/>
@@ -1771,7 +1843,7 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" s="20"/>
       <c r="B15" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="45"/>
@@ -1790,7 +1862,7 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" s="20"/>
       <c r="B16" s="27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="29"/>
       <c r="D16" s="45"/>
@@ -1809,7 +1881,7 @@
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A17" s="20"/>
       <c r="B17" s="27" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C17" s="29"/>
       <c r="D17" s="45"/>
@@ -1828,7 +1900,7 @@
     <row r="18" spans="1:19" ht="17.25" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="20"/>
       <c r="B18" s="30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C18" s="31"/>
       <c r="D18" s="47"/>
@@ -1863,25 +1935,25 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A20" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="D20" s="22" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="E20" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="F20" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="G20" s="22" t="s">
         <v>110</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>112</v>
       </c>
       <c r="H20" s="21"/>
       <c r="I20" s="21"/>
@@ -1912,19 +1984,19 @@
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A22" s="20"/>
       <c r="B22" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" s="32">
         <v>42416</v>
       </c>
       <c r="D22" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="F22" s="22" t="s">
         <v>114</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>115</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>116</v>
       </c>
       <c r="G22" s="22"/>
       <c r="H22" s="21"/>
@@ -1946,10 +2018,10 @@
       <c r="E23" s="36"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H23" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I23" s="21"/>
       <c r="J23" s="21"/>
@@ -1969,10 +2041,10 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H24" s="21" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -1985,12 +2057,18 @@
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A25" s="20"/>
       <c r="B25" s="21"/>
-      <c r="C25" s="32"/>
+      <c r="C25" s="32">
+        <v>42426</v>
+      </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="21"/>
+      <c r="G25" s="22" t="s">
+        <v>124</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>140</v>
+      </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
       <c r="K25" s="21"/>
@@ -2000,24 +2078,16 @@
       <c r="O25" s="21"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A26" s="20" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="22" t="s">
-        <v>121</v>
-      </c>
+      <c r="A26" s="20"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="21"/>
+      <c r="H26" s="63" t="s">
+        <v>143</v>
+      </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
       <c r="K26" s="21"/>
@@ -2025,14 +2095,58 @@
       <c r="M26" s="21"/>
       <c r="N26" s="21"/>
       <c r="O26" s="21"/>
-      <c r="P26" s="33"/>
-      <c r="Q26" s="33"/>
-      <c r="R26" s="33"/>
-      <c r="S26" s="33"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A27" s="20"/>
       <c r="B27" s="21"/>
       <c r="C27" s="32"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+      <c r="J27" s="21"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="21"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="21"/>
+      <c r="O27" s="21"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="21"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="21"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="21"/>
+      <c r="O28" s="21"/>
+      <c r="P28" s="33"/>
+      <c r="Q28" s="33"/>
+      <c r="R28" s="33"/>
+      <c r="S28" s="33"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B29" s="21"/>
+      <c r="C29" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2047,16 +2161,19 @@
     <mergeCell ref="D15:H15"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H26" location="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能" display="补充各个商店功能开启等级顺序要与商店切换顺序一致的备注（商店已定的功能）"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L73"/>
+  <dimension ref="A1:L74"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2087,7 +2204,7 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J3" s="17"/>
     </row>
@@ -2105,7 +2222,7 @@
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="D5" s="39" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2125,7 +2242,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
@@ -2141,7 +2258,7 @@
         <v>3</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E13" s="37"/>
       <c r="F13" s="37"/>
@@ -2214,40 +2331,40 @@
         <v>3</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F26" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F27" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F29" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F30" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
       <c r="F31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
@@ -2288,7 +2405,7 @@
     </row>
     <row r="38" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F38" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="4:7" x14ac:dyDescent="0.35">
@@ -2324,7 +2441,7 @@
     </row>
     <row r="45" spans="4:7" x14ac:dyDescent="0.35">
       <c r="F45" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="46" spans="4:7" x14ac:dyDescent="0.35">
@@ -2340,7 +2457,7 @@
         <v>58</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -2378,13 +2495,13 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A52" s="34" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F52" s="35" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="H52" s="1">
         <v>8</v>
@@ -2398,10 +2515,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" s="41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H53" s="1">
         <v>12</v>
@@ -2415,7 +2532,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F54" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H54" s="18" t="s">
         <v>19</v>
@@ -2429,7 +2546,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F55" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H55" s="1">
         <v>24</v>
@@ -2443,7 +2560,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F56" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H56" s="18" t="s">
         <v>19</v>
@@ -2460,7 +2577,7 @@
         <v>3</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H57" s="18" t="s">
         <v>19</v>
@@ -2474,7 +2591,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F58" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="H58" s="18" t="s">
         <v>19</v>
@@ -2494,7 +2611,7 @@
         <v>6</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H59" s="1">
         <v>6</v>
@@ -2550,21 +2667,21 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F63" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H63" s="1">
         <v>8</v>
       </c>
       <c r="I63" s="38" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
       <c r="K64" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="66" spans="3:12" x14ac:dyDescent="0.35">
@@ -2634,8 +2751,8 @@
       <c r="E70" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="1" t="s">
-        <v>65</v>
+      <c r="F70" s="60" t="s">
+        <v>139</v>
       </c>
       <c r="G70" s="1">
         <v>8</v>
@@ -2647,13 +2764,38 @@
         <v>64</v>
       </c>
       <c r="L70" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="F71" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G71" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="H71" s="1">
+        <v>1</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C73" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="C73" s="59" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="74" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C74" s="60" t="s">
+        <v>142</v>
+      </c>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
+      <c r="F74" s="62"/>
+      <c r="G74" s="62"/>
+      <c r="H74" s="62"/>
+      <c r="I74" s="62"/>
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
@@ -2752,7 +2894,7 @@
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>40</v>
@@ -2926,8 +3068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2937,21 +3079,21 @@
   <sheetData>
     <row r="1" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="43" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B2" s="44" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="C3" s="42" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H3" s="42">
         <v>1.5</v>

--- a/gd/主界面/功能开启设计.xlsx
+++ b/gd/主界面/功能开启设计.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="29925" windowHeight="18480" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -13,527 +13,532 @@
     <sheet name="任务拆分" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能">开启功能!$C$74</definedName>
+    <definedName name="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能">开启功能!$C$85</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
   <si>
     <t>分类</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1. 游戏初始就有的，不需要特殊开启功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>UI入口</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3D入口</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3D+UI入口</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>碎片合成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有宠物</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物穿装备</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物吃经验药</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2. 游戏初始没有开放，需要开启功能配合</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物升阶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>入口类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>项目内功能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>图鉴列表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>开启功能分类</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>弹出IM提示信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="12" type="noConversion"/>
+    <phoneticPr fontId="14" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001（需向该提示信息传递开启等级的参数）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>该功能X级开启</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>装备开孔、镶嵌宝石</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>比如</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>点击“打造”切页标签，若玩家等级未达到功能开启等级，则不会切到对应功能面板，而是弹出IM提示信息</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能描述</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>具体功能及对应提示见下表</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物提升技能</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物详细属性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备详细属性</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>普通副本入口</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>对局外</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>集火</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>对局内（指从副本选择到副本结算整个流程）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>对局战斗</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>副本进入及副本难度选择的提示逻辑遵循文档《副本选择设计》</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>换宠</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>换宠功能未开启时，点击宠物不会弹出换宠UI，无反馈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>点击宠物不会弹出换宠UI，无反馈</t>
   </si>
   <si>
     <t>自动战斗</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>——</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>宠物槽提示逻辑遵循文档《阵容选择设计》</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>注意扫荡功能还存在自身在开启后的使用逻辑，详见《阵容选择设计》</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>场景buff</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>IM聊天</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>其中的公会聊天频道需要加入公会才能使用，提示逻辑见《IM系统设计》</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>充值</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>普通商店</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>1：是指普通商店的UI入口；3：是指普通商店的3D入口</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>其他商店（比如公会商店、通天塔商店等）在主界面没有入口，在对应功能界面才有入口，但可以通过商店间切换到其他商店，切换逻辑见《商店系统设计》</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>装备强化、进阶</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标隐藏，开启后图标出现</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.0.1</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>功能开启设计</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t>规划功能开启需求</t>
-    <phoneticPr fontId="16" type="noConversion"/>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">svn://10.21.2.47/gd/主界面/功能开启设计.xlsx
 </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>3D未开启的时候怎么显示，点了有提示么？</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>回归测试问题</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>经验和金币试炼</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标/功能入口不用隐藏，点击时，不会切到/打开对应功能面板，而会弹出相应IM提示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标/功能入口不用隐藏且该图标/入口，点击时无反馈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -549,51 +554,47 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>出现表现待设计</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>点击无反馈</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>2016.2.19</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>功能框架+IM提示</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>回归任务拆分</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>扫荡多次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>扫荡一次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>将扫荡功能拆分成扫荡一次和扫荡多次</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -619,28 +620,99 @@
       </rPr>
       <t>其他未设计功能等到设计时，需要补充开启需求</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           2. 注意各个商店功能开启等级顺序要与商店切换顺序一致（商店已定的功能）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
     <t>补充各个商店功能开启等级顺序要与商店切换顺序一致的备注（商店已定的功能）</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启表现见文档《主界面逻辑设计》</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>若某级只开启了一个新功能，则在满足等级后，第一次回到界面时：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>若该功能只有3D入口，则强转镜头达到该功能入口处，且该入口特效已出现，若存在新手教学，再开启新手教学；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>若该功能只有2D入口，不需要强转镜头，直接播放开启表现，若存在新手教学，再开启新手教学；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>若某级开启了多于一个新功能，则在满足等级后，第一次回到界面时：</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要规定多个新功能的开启顺序，且若存在新手教学，则该顺序与新手教学顺序一致；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体流程为播放一个新功能的开启表现，然后开启对应功能的新手教学；</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>然后播放下一个新功能的开启表现，再开启对应功能的新手教学，以此类推。</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>若对应功能没有新手教学，则播放完开启表现，直接播放下一个功能的开启表现</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启逻辑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>补充开启逻辑</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个槽- 12级</t>
+  </si>
+  <si>
+    <t>第一个槽 - 6级</t>
+  </si>
+  <si>
+    <t>若该功能同时存在3D和2D入口，则只做2D入口开启表现，不在表现3D，若存在新手教学，再开启新手教学。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -785,7 +857,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -822,6 +894,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5BD4FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1043,158 +1121,161 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1215,6 +1296,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FF5BD4FF"/>
       <color rgb="FF99CCFF"/>
     </mruColors>
   </colors>
@@ -1273,7 +1355,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1559,10 +1641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S30"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1762,17 +1844,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
-      <c r="B11" s="49" t="s">
+      <c r="B11" s="55" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="51" t="s">
+      <c r="C11" s="56"/>
+      <c r="D11" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="52"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="58"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1787,11 +1869,11 @@
         <v>96</v>
       </c>
       <c r="C12" s="28"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="52"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1808,11 +1890,11 @@
       <c r="C13" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="55"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="61"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -1827,11 +1909,11 @@
         <v>99</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="57"/>
-      <c r="G14" s="57"/>
-      <c r="H14" s="58"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="63"/>
+      <c r="F14" s="63"/>
+      <c r="G14" s="63"/>
+      <c r="H14" s="64"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1846,11 +1928,11 @@
         <v>100</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="45"/>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="46"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="52"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1865,11 +1947,11 @@
         <v>101</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="46"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="52"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1884,11 +1966,11 @@
         <v>102</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="52"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -1903,11 +1985,11 @@
         <v>103</v>
       </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="48"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="54"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -2041,10 +2123,10 @@
       <c r="E24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="H24" s="21" t="s">
         <v>136</v>
-      </c>
-      <c r="H24" s="21" t="s">
-        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="21"/>
@@ -2061,13 +2143,13 @@
         <v>42426</v>
       </c>
       <c r="D25" s="22"/>
-      <c r="E25" s="61"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22" t="s">
         <v>124</v>
       </c>
       <c r="H25" s="21" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="I25" s="21"/>
       <c r="J25" s="21"/>
@@ -2085,8 +2167,8 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="63" t="s">
-        <v>143</v>
+      <c r="H26" s="43" t="s">
+        <v>142</v>
       </c>
       <c r="I26" s="21"/>
       <c r="J26" s="21"/>
@@ -2099,12 +2181,18 @@
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A27" s="20"/>
       <c r="B27" s="21"/>
-      <c r="C27" s="32"/>
+      <c r="C27" s="32">
+        <v>42452</v>
+      </c>
       <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="E27" s="49"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="21"/>
+      <c r="G27" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="21" t="s">
+        <v>154</v>
+      </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
       <c r="K27" s="21"/>
@@ -2114,21 +2202,11 @@
       <c r="O27" s="21"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E28" s="22" t="s">
-        <v>119</v>
-      </c>
+      <c r="A28" s="20"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
       <c r="H28" s="21"/>
@@ -2139,14 +2217,41 @@
       <c r="M28" s="21"/>
       <c r="N28" s="21"/>
       <c r="O28" s="21"/>
-      <c r="P28" s="33"/>
-      <c r="Q28" s="33"/>
-      <c r="R28" s="33"/>
-      <c r="S28" s="33"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="B29" s="21"/>
-      <c r="C29" s="32"/>
+      <c r="A29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D29" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+      <c r="J29" s="21"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="21"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="S29" s="33"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B30" s="21"/>
+      <c r="C30" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2160,7 +2265,7 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H26" location="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能" display="补充各个商店功能开启等级顺序要与商店切换顺序一致的备注（商店已定的功能）"/>
   </hyperlinks>
@@ -2170,20 +2275,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L74"/>
+  <dimension ref="A1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F77" sqref="F77"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="34.875" style="1" customWidth="1"/>
-    <col min="2" max="5" width="9" style="1"/>
+    <col min="1" max="1" width="34.875" style="1" hidden="1" customWidth="1"/>
+    <col min="2" max="5" width="8.875" style="1"/>
     <col min="6" max="6" width="11.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.875" style="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" x14ac:dyDescent="0.35">
@@ -2221,11 +2326,11 @@
       <c r="I4" s="17"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D5" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
+      <c r="D5" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
@@ -2254,554 +2359,782 @@
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C13" s="40">
+      <c r="C13" s="45">
         <v>3</v>
       </c>
-      <c r="D13" s="40" t="s">
+      <c r="D13" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D14" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="47"/>
+      <c r="F14" s="47"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C16" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B17" s="2" t="s">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C18" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C19" s="46">
+        <v>1</v>
+      </c>
+      <c r="D19" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+    </row>
+    <row r="22" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="46" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C23" s="47">
+        <v>2</v>
+      </c>
+      <c r="D23" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="46" t="s">
+        <v>151</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="B28" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="C18" s="2" t="s">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C29" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="D19" s="2" t="s">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="D30" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E20" s="2" t="s">
+    <row r="31" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="E31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F31" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E21" s="1" t="s">
+    <row r="32" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="E32" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="F32" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F22" s="1" t="s">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="G23" s="1" t="s">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G34" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F24" s="1" t="s">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F35" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E25" s="1" t="s">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E36" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F26" s="1" t="s">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F37" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F27" s="1" t="s">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F38" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F28" s="1" t="s">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F39" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F29" s="1" t="s">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F40" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H40" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F30" s="1" t="s">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F41" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="F31" s="1" t="s">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="F42" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="E32" s="1" t="s">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E43" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G33" s="1" t="s">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G44" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G34" s="1" t="s">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G45" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G35" s="1" t="s">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G46" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G36" s="1" t="s">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="G37" s="1" t="s">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="G48" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F38" s="1" t="s">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="F49" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="D40" s="2" t="s">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D51" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E41" s="2" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E52" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="F52" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="42" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E42" s="1" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E53" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F53" s="1" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="43" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F43" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="44" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F44" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="45" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="F45" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="F46" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="4:7" x14ac:dyDescent="0.35">
-      <c r="E47" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D50" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E51" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K51" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H52" s="1">
-        <v>8</v>
-      </c>
-      <c r="I52" s="1">
-        <v>3</v>
-      </c>
-      <c r="J52" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" s="41" t="s">
-        <v>131</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H53" s="1">
-        <v>12</v>
-      </c>
-      <c r="I53" s="1">
-        <v>3</v>
-      </c>
-      <c r="J53" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F54" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H54" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I54" s="1">
-        <v>3</v>
-      </c>
-      <c r="J54" s="1" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F55" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="H55" s="1">
-        <v>24</v>
-      </c>
-      <c r="I55" s="1">
-        <v>3</v>
-      </c>
-      <c r="J55" s="1" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F56" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H56" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I56" s="1">
-        <v>3</v>
-      </c>
-      <c r="J56" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E57" s="1" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H57" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I57" s="1">
-        <v>1</v>
-      </c>
-      <c r="J57" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E58" s="1" t="s">
+        <v>58</v>
+      </c>
       <c r="F58" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="H58" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I58" s="1">
-        <v>1</v>
-      </c>
-      <c r="J58" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F59" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="H59" s="1">
-        <v>6</v>
-      </c>
-      <c r="I59" s="1">
-        <v>2</v>
-      </c>
-      <c r="J59" s="1" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H60" s="1">
-        <v>8</v>
-      </c>
-      <c r="I60" s="1">
-        <v>2</v>
-      </c>
-      <c r="J60" s="1" t="s">
-        <v>38</v>
+      <c r="C60" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G61" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H61" s="1">
-        <v>20</v>
-      </c>
-      <c r="I61" s="1">
-        <v>2</v>
-      </c>
-      <c r="J61" s="1" t="s">
-        <v>38</v>
+      <c r="D61" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="G62" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I62" s="1">
-        <v>2</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>38</v>
+      <c r="E62" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F63" s="1" t="s">
-        <v>83</v>
+      <c r="A63" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" s="35" t="s">
+        <v>126</v>
       </c>
       <c r="H63" s="1">
         <v>8</v>
       </c>
-      <c r="I63" s="38" t="s">
+      <c r="I63" s="1">
+        <v>3</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H64" s="1">
+        <v>12</v>
+      </c>
+      <c r="I64" s="1">
+        <v>3</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="F65" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H65" s="17">
+        <v>12</v>
+      </c>
+      <c r="I65" s="1">
+        <v>3</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="F66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="17">
+        <v>24</v>
+      </c>
+      <c r="I66" s="1">
+        <v>3</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="F67" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H67" s="17">
+        <v>22</v>
+      </c>
+      <c r="I67" s="1">
+        <v>3</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="68" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="17">
+        <v>15</v>
+      </c>
+      <c r="I68" s="1">
+        <v>1</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="F69" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H69" s="17">
+        <v>22</v>
+      </c>
+      <c r="I69" s="1">
+        <v>1</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="70" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="17">
+        <v>6</v>
+      </c>
+      <c r="I70" s="1">
+        <v>2</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="G71" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H71" s="17">
+        <v>8</v>
+      </c>
+      <c r="I71" s="1">
+        <v>2</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="G72" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H72" s="1">
+        <v>20</v>
+      </c>
+      <c r="I72" s="1">
+        <v>2</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="G73" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H73" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I73" s="1">
+        <v>2</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="F74" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H74" s="1">
+        <v>8</v>
+      </c>
+      <c r="I74" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="K74" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="K64" s="1" t="s">
+    <row r="75" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="K75" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="D66" s="2" t="s">
+    <row r="77" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="D77" s="2" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E67" s="2" t="s">
+    <row r="78" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E78" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F78" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I67" s="19" t="s">
+      <c r="I78" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="J67" s="19"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="2" t="s">
+      <c r="J78" s="19"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E68" s="1" t="s">
+    <row r="79" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="E79" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F68" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G68" s="1">
+      <c r="G79" s="1">
         <v>6</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H79" s="1">
         <v>1</v>
       </c>
-      <c r="I68" s="1" t="s">
+      <c r="I79" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L79" s="1" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="69" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="F69" s="17" t="s">
+      <c r="Q79" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="S79" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="80" spans="4:19" x14ac:dyDescent="0.35">
+      <c r="F80" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G80" s="17">
         <v>6</v>
       </c>
-      <c r="H69" s="17">
+      <c r="H80" s="17">
         <v>2</v>
       </c>
-      <c r="I69" s="17" t="s">
+      <c r="I80" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="J69" s="12"/>
-      <c r="K69" s="12"/>
-    </row>
-    <row r="70" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="E70" s="1" t="s">
+      <c r="J80" s="12"/>
+      <c r="K80" s="12"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="F70" s="60" t="s">
-        <v>139</v>
-      </c>
-      <c r="G70" s="1">
+      <c r="F81" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G81" s="17">
         <v>8</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H81" s="17">
         <v>1</v>
       </c>
-      <c r="I70" s="1" t="s">
+      <c r="I81" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L70" s="1" t="s">
+      <c r="L81" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="F71" s="60" t="s">
-        <v>138</v>
-      </c>
-      <c r="G71" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="H71" s="1">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="44" t="s">
+        <v>137</v>
+      </c>
+      <c r="G82" s="17">
+        <v>15</v>
+      </c>
+      <c r="H82" s="17">
         <v>1</v>
       </c>
-      <c r="I71" s="1" t="s">
+      <c r="I82" s="17" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C73" s="59" t="s">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C84" s="44" t="s">
+        <v>140</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="C85" s="44" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="74" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C74" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
-      <c r="I74" s="62"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17"/>
+      <c r="I85" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="A52">
+  <phoneticPr fontId="11" type="noConversion"/>
+  <conditionalFormatting sqref="A63">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A52))&gt;0</formula>
+      <formula>LEN(TRIM(A63))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2827,7 +3160,7 @@
     <col min="5" max="5" width="10.625" style="6" customWidth="1"/>
     <col min="6" max="8" width="9" style="6"/>
     <col min="9" max="9" width="17.125" style="6" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="17.625" style="6" customWidth="1"/>
     <col min="11" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
@@ -3059,7 +3392,7 @@
       <c r="K14" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3068,39 +3401,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9" style="42"/>
+    <col min="1" max="16384" width="8.875" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="43" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="40" t="s">
+        <v>133</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B2" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="L2" s="41"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="39" t="s">
         <v>134</v>
       </c>
-      <c r="H1" s="43" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B2" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="L2" s="44"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="42" t="s">
-        <v>135</v>
-      </c>
-      <c r="H3" s="42">
+      <c r="H3" s="39">
         <v>1.5</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/gd/主界面/功能开启设计.xlsx
+++ b/gd/主界面/功能开启设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="465" windowWidth="29925" windowHeight="18480" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="465" windowWidth="29925" windowHeight="18480"/>
   </bookViews>
   <sheets>
     <sheet name="目录" sheetId="3" r:id="rId1"/>
@@ -13,532 +13,527 @@
     <sheet name="任务拆分" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能">开启功能!$C$85</definedName>
+    <definedName name="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能">开启功能!$C$84</definedName>
   </definedNames>
   <calcPr calcId="122211" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="162">
   <si>
     <t>分类</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1. 游戏初始就有的，不需要特殊开启功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>抽蛋</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>UI入口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3D入口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3D+UI入口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>碎片合成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>图鉴</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>玩家拥有宠物</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物穿装备</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物吃经验药</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2. 游戏初始没有开放，需要开启功能配合</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物升阶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>入口类型</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>项目内功能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>开启等级</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>图鉴列表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物进化</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>待定</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>开启功能分类</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能项</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能编号</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>弹出IM提示信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>提示方式</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>ID</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>触发条件</t>
   </si>
   <si>
     <t>提示范围</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>文字内容</t>
   </si>
   <si>
     <t>对应英文</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>世界频道</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>公会频道</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>走马灯</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（非警示）</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>系统提示（警示）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>系统公告</t>
-    <phoneticPr fontId="14" type="noConversion"/>
+    <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
     <t>玩家自己</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001（需向该提示信息传递开启等级的参数）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>该功能X级开启</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>装备开孔、镶嵌宝石</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>比如</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>点击“打造”切页标签，若玩家等级未达到功能开启等级，则不会切到对应功能面板，而是弹出IM提示信息</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能描述</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>具体功能及对应提示见下表</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物提升技能</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物详细属性</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物装备详细属性</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>普通副本入口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>对局外</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>集火</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>照妖镜</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>大招</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>对局内（指从副本选择到副本结算整个流程）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>对局战斗</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>副本选择</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>副本进入及副本难度选择的提示逻辑遵循文档《副本选择设计》</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>阵容选择</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>换宠</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>换宠功能未开启时，点击宠物不会弹出换宠UI，无反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>点击宠物不会弹出换宠UI，无反馈</t>
   </si>
   <si>
     <t>自动战斗</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>——</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>宠物槽提示逻辑遵循文档《阵容选择设计》</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>注意扫荡功能还存在自身在开启后的使用逻辑，详见《阵容选择设计》</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>场景buff</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>通天塔</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>大冒险</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>PVP</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>公会</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>start_record_001</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>签到</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>邮箱</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>任务</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>背包</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>合成</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>分解</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>IM聊天</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>其中的公会聊天频道需要加入公会才能使用，提示逻辑见《IM系统设计》</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>商城</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>充值</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>普通商店</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>1：是指普通商店的UI入口；3：是指普通商店的3D入口</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>其他商店（比如公会商店、通天塔商店等）在主界面没有入口，在对应功能界面才有入口，但可以通过商店间切换到其他商店，切换逻辑见《商店系统设计》</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>装备强化、进阶</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>活动</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标隐藏，开启后图标出现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>文档名称</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档目的</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>目标读者</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>所有</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档路径</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档状态</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>详细信息</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>编写中</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待审核(策划)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>√</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>修改中（策划）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待审核(QC)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修改中(QC)</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>待3方</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>已定案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>文档历史</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>发布日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>知会同事</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>标记颜色</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>创建人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>修订人</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>Ver 0.0.1</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>MT</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>无</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>有关会议</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>版本号</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>会议日期</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>参与同事</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>基本概要</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>功能开启设计</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t>规划功能开启需求</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">svn://10.21.2.47/gd/主界面/功能开启设计.xlsx
 </t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>3D未开启的时候怎么显示，点了有提示么？</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>回归测试问题</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>经验和金币试炼</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标/功能入口不用隐藏，点击时，不会切到/打开对应功能面板，而会弹出相应IM提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能未开启时，功能图标/功能入口不用隐藏且该图标/入口，点击时无反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -554,47 +549,47 @@
       </rPr>
       <t>3</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>点击无反馈</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>对应工时（单位：d）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>程序</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>2016.2.19</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>功能框架+IM提示</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>回归任务拆分</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>扫荡多次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>扫荡一次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>将扫荡功能拆分成扫荡一次和扫荡多次</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -620,63 +615,39 @@
       </rPr>
       <t>其他未设计功能等到设计时，需要补充开启需求</t>
     </r>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">           2. 注意各个商店功能开启等级顺序要与商店切换顺序一致（商店已定的功能）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>补充各个商店功能开启等级顺序要与商店切换顺序一致的备注（商店已定的功能）</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>开启表现见文档《主界面逻辑设计》</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>若某级只开启了一个新功能，则在满足等级后，第一次回到界面时：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>若该功能只有3D入口，则强转镜头达到该功能入口处，且该入口特效已出现，若存在新手教学，再开启新手教学；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>若该功能只有2D入口，不需要强转镜头，直接播放开启表现，若存在新手教学，再开启新手教学；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>若某级开启了多于一个新功能，则在满足等级后，第一次回到界面时：</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要规定多个新功能的开启顺序，且若存在新手教学，则该顺序与新手教学顺序一致；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体流程为播放一个新功能的开启表现，然后开启对应功能的新手教学；</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>然后播放下一个新功能的开启表现，再开启对应功能的新手教学，以此类推。</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>若对应功能没有新手教学，则播放完开启表现，直接播放下一个功能的开启表现</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>雪</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>开启逻辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>补充开启逻辑</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>第二个槽- 12级</t>
@@ -685,20 +656,150 @@
     <t>第一个槽 - 6级</t>
   </si>
   <si>
-    <t>若该功能同时存在3D和2D入口，则只做2D入口开启表现，不在表现3D，若存在新手教学，再开启新手教学。</t>
+    <t>雪</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>三方后回归</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能的开启都作为新手的一个步骤来实现，功能跟随新手教程逻辑，若对应新手没有完成，玩家重新上线会再次播放开启表现</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若该功能只有3D入口，则强转镜头达到该功能入口处，开始新手教程，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3D入口出的特效出现属于新手一个步骤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>若该功能只有2D入口，不需要强转镜头，开始新手教程，2D入口出现表现属于新手一个步骤；</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>该种情况无开启表现</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>若该功能同时存在3D和2D入口，则只做2D入口开启表现，不再表现3D，新手教学也会在</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2D处做</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>。</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>逐个进行开启功能的新手教学，表现也是跟着新手教学依次播放。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2016.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>25</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新功能开启</t>
+  </si>
+  <si>
+    <t>回归任务拆分</t>
+    <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -857,7 +958,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -900,6 +1001,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1121,161 +1228,170 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1296,6 +1412,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <colors>
     <mruColors>
+      <color rgb="FFCC99FF"/>
       <color rgb="FF5BD4FF"/>
       <color rgb="FF99CCFF"/>
     </mruColors>
@@ -1317,13 +1434,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>215348</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>123963</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1641,10 +1758,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S30"/>
+  <dimension ref="A1:S32"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1844,17 +1961,17 @@
     </row>
     <row r="11" spans="1:15" ht="17.25" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20"/>
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57" t="s">
+      <c r="C11" s="62"/>
+      <c r="D11" s="63" t="s">
         <v>95</v>
       </c>
-      <c r="E11" s="57"/>
-      <c r="F11" s="57"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="58"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="64"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
@@ -1869,11 +1986,11 @@
         <v>96</v>
       </c>
       <c r="C12" s="28"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-      <c r="H12" s="52"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="57"/>
+      <c r="G12" s="57"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
@@ -1890,11 +2007,11 @@
       <c r="C13" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="59"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="61"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
@@ -1909,11 +2026,11 @@
         <v>99</v>
       </c>
       <c r="C14" s="28"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="64"/>
+      <c r="D14" s="68"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="70"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -1928,11 +2045,11 @@
         <v>100</v>
       </c>
       <c r="C15" s="29"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="52"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="58"/>
       <c r="I15" s="21"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
@@ -1947,11 +2064,11 @@
         <v>101</v>
       </c>
       <c r="C16" s="29"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="52"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="57"/>
+      <c r="H16" s="58"/>
       <c r="I16" s="21"/>
       <c r="J16" s="21"/>
       <c r="K16" s="21"/>
@@ -1966,11 +2083,11 @@
         <v>102</v>
       </c>
       <c r="C17" s="29"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="52"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="57"/>
+      <c r="H17" s="58"/>
       <c r="I17" s="21"/>
       <c r="J17" s="21"/>
       <c r="K17" s="21"/>
@@ -1985,11 +2102,11 @@
         <v>103</v>
       </c>
       <c r="C18" s="31"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
-      <c r="H18" s="54"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="60"/>
       <c r="I18" s="21"/>
       <c r="J18" s="21"/>
       <c r="K18" s="21"/>
@@ -2188,10 +2305,10 @@
       <c r="E27" s="49"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H27" s="21" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="I27" s="21"/>
       <c r="J27" s="21"/>
@@ -2204,12 +2321,18 @@
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A28" s="20"/>
       <c r="B28" s="21"/>
-      <c r="C28" s="32"/>
+      <c r="C28" s="32">
+        <v>42454</v>
+      </c>
       <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
+      <c r="E28" s="52"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="21"/>
+      <c r="G28" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="H28" s="21" t="s">
+        <v>152</v>
+      </c>
       <c r="I28" s="21"/>
       <c r="J28" s="21"/>
       <c r="K28" s="21"/>
@@ -2219,24 +2342,16 @@
       <c r="O28" s="21"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.35">
-      <c r="A29" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>119</v>
-      </c>
+      <c r="A29" s="20"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="32"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
-      <c r="H29" s="21"/>
+      <c r="H29" s="21" t="s">
+        <v>161</v>
+      </c>
       <c r="I29" s="21"/>
       <c r="J29" s="21"/>
       <c r="K29" s="21"/>
@@ -2244,14 +2359,58 @@
       <c r="M29" s="21"/>
       <c r="N29" s="21"/>
       <c r="O29" s="21"/>
-      <c r="P29" s="33"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A30" s="20"/>
       <c r="B30" s="21"/>
       <c r="C30" s="32"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="22"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+      <c r="J30" s="21"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="21"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A31" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="21"/>
+      <c r="I31" s="21"/>
+      <c r="J31" s="21"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="21"/>
+      <c r="M31" s="21"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="B32" s="21"/>
+      <c r="C32" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2265,7 +2424,7 @@
     <mergeCell ref="D14:H14"/>
     <mergeCell ref="D15:H15"/>
   </mergeCells>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="H26" location="_2._注意各个商店功能开启等级顺序要与商店切换顺序一致_商店已定的功能" display="补充各个商店功能开启等级顺序要与商店切换顺序一致的备注（商店已定的功能）"/>
   </hyperlinks>
@@ -2275,10 +2434,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S85"/>
+  <dimension ref="A1:S84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -2351,65 +2510,52 @@
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D8" s="1" t="s">
+      <c r="C8" s="2"/>
+      <c r="D8" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E9" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C13" s="45">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C14" s="45">
         <v>3</v>
       </c>
-      <c r="D13" s="45" t="s">
+      <c r="D14" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="D14" s="46" t="s">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="D15" s="46" t="s">
         <v>143</v>
       </c>
-      <c r="E14" s="47"/>
-      <c r="F14" s="47"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="C16" s="1" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="47"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.35">
+      <c r="C17" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C18" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-    </row>
     <row r="19" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C19" s="46">
-        <v>1</v>
-      </c>
-      <c r="D19" s="46" t="s">
-        <v>144</v>
-      </c>
+      <c r="C19" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" s="47"/>
       <c r="E19" s="47"/>
       <c r="F19" s="47"/>
       <c r="G19" s="47"/>
@@ -2419,36 +2565,38 @@
       <c r="K19" s="47"/>
       <c r="L19" s="47"/>
       <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" s="17"/>
+      <c r="Q19" s="17"/>
     </row>
     <row r="20" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
+      <c r="K20" s="55"/>
+      <c r="L20" s="55"/>
+      <c r="M20" s="55"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="17"/>
+      <c r="Q20" s="17"/>
     </row>
     <row r="21" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="46" t="s">
-        <v>146</v>
-      </c>
+      <c r="C21" s="46">
+        <v>1</v>
+      </c>
+      <c r="D21" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E21" s="47"/>
       <c r="F21" s="47"/>
       <c r="G21" s="47"/>
       <c r="H21" s="47"/>
@@ -2457,76 +2605,76 @@
       <c r="K21" s="47"/>
       <c r="L21" s="47"/>
       <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" s="17"/>
+      <c r="Q21" s="17"/>
     </row>
     <row r="22" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C22" s="47"/>
       <c r="D22" s="47"/>
-      <c r="E22" s="46" t="s">
-        <v>157</v>
+      <c r="E22" s="53" t="s">
+        <v>154</v>
       </c>
       <c r="F22" s="47"/>
       <c r="G22" s="47"/>
       <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
+      <c r="M22" s="55"/>
+      <c r="N22" s="17"/>
+      <c r="O22" s="17"/>
+      <c r="P22" s="17"/>
+      <c r="Q22" s="17"/>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C23" s="47">
-        <v>2</v>
-      </c>
-      <c r="D23" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="E23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="53" t="s">
+        <v>155</v>
+      </c>
       <c r="F23" s="47"/>
       <c r="G23" s="47"/>
       <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
       <c r="L23" s="47"/>
       <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
+      <c r="N23" s="17"/>
+      <c r="O23" s="17"/>
+      <c r="P23" s="17"/>
+      <c r="Q23" s="17"/>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C24" s="47"/>
       <c r="D24" s="47"/>
-      <c r="E24" s="46" t="s">
-        <v>148</v>
+      <c r="E24" s="53" t="s">
+        <v>157</v>
       </c>
       <c r="F24" s="47"/>
       <c r="G24" s="47"/>
       <c r="H24" s="47"/>
       <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
+      <c r="N24" s="17"/>
+      <c r="O24" s="17"/>
+      <c r="P24" s="17"/>
+      <c r="Q24" s="17"/>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="46" t="s">
-        <v>149</v>
-      </c>
+      <c r="C25" s="47">
+        <v>2</v>
+      </c>
+      <c r="D25" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="E25" s="47"/>
       <c r="F25" s="47"/>
       <c r="G25" s="47"/>
       <c r="H25" s="47"/>
@@ -2535,283 +2683,285 @@
       <c r="K25" s="47"/>
       <c r="L25" s="47"/>
       <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
+      <c r="N25" s="17"/>
+      <c r="O25" s="17"/>
+      <c r="P25" s="17"/>
+      <c r="Q25" s="17"/>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.35">
       <c r="C26" s="47"/>
       <c r="D26" s="47"/>
-      <c r="E26" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
+      <c r="E26" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="51"/>
+      <c r="K26" s="51"/>
       <c r="L26" s="47"/>
       <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
+      <c r="N26" s="17"/>
+      <c r="O26" s="17"/>
+      <c r="P26" s="17"/>
+      <c r="Q26" s="17"/>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="46" t="s">
-        <v>151</v>
-      </c>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
+      <c r="B27" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N27" s="17"/>
+      <c r="O27" s="17"/>
+      <c r="P27" s="17"/>
+      <c r="Q27" s="17"/>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="B28" s="2" t="s">
-        <v>0</v>
+      <c r="C28" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="C29" s="2" t="s">
-        <v>1</v>
+      <c r="D29" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="D30" s="2" t="s">
-        <v>50</v>
+      <c r="E30" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="E31" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>63</v>
+      <c r="E31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.35">
-      <c r="E32" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="F32" s="1" t="s">
-        <v>2</v>
+        <v>8</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F33" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="G33" s="1" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="G34" s="1" t="s">
-        <v>7</v>
+      <c r="F34" s="1" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E35" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F35" s="1" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E36" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="F36" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F37" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F38" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F39" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="40" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F40" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="41" spans="5:8" x14ac:dyDescent="0.35">
       <c r="F41" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="42" spans="5:8" x14ac:dyDescent="0.35">
+      <c r="E42" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F42" s="1" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E43" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F43" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="G43" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G45" s="1" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
     </row>
     <row r="46" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G46" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="47" spans="5:8" x14ac:dyDescent="0.35">
       <c r="G47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="48" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="G48" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="F49" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>87</v>
       </c>
     </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="D50" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D51" s="2" t="s">
-        <v>54</v>
+      <c r="E51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E52" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>15</v>
+      <c r="E52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E53" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="F53" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F54" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
       <c r="F55" s="1" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E56" s="1" t="s">
+        <v>56</v>
+      </c>
       <c r="F56" s="1" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
       <c r="E57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E58" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="F58" s="1" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="C59" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="C60" s="2" t="s">
+      <c r="D60" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="E61" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J61" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F62" s="35" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="1">
+        <v>8</v>
+      </c>
+      <c r="I62" s="1">
+        <v>3</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" s="38" t="s">
+        <v>130</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H63" s="1">
         <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="D61" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="E62" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I62" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J62" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="K62" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A63" s="34" t="s">
-        <v>123</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F63" s="35" t="s">
-        <v>126</v>
-      </c>
-      <c r="H63" s="1">
-        <v>8</v>
       </c>
       <c r="I63" s="1">
         <v>3</v>
@@ -2821,13 +2971,10 @@
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A64" s="38" t="s">
-        <v>130</v>
-      </c>
       <c r="F64" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="H64" s="1">
+        <v>70</v>
+      </c>
+      <c r="H64" s="17">
         <v>12</v>
       </c>
       <c r="I64" s="1">
@@ -2837,12 +2984,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="65" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="65" spans="3:19" x14ac:dyDescent="0.35">
       <c r="F65" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H65" s="17">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="I65" s="1">
         <v>3</v>
@@ -2851,12 +2998,12 @@
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="66" spans="3:19" x14ac:dyDescent="0.35">
       <c r="F66" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H66" s="17">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I66" s="1">
         <v>3</v>
@@ -2865,29 +3012,29 @@
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="67" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E67" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="F67" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="H67" s="17">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="I67" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E68" s="1" t="s">
-        <v>3</v>
-      </c>
+    <row r="68" spans="3:19" x14ac:dyDescent="0.35">
       <c r="F68" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H68" s="17">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="I68" s="1">
         <v>1</v>
@@ -2896,32 +3043,32 @@
         <v>64</v>
       </c>
     </row>
-    <row r="69" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="69" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E69" s="1" t="s">
+        <v>5</v>
+      </c>
       <c r="F69" s="1" t="s">
-        <v>78</v>
+        <v>6</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>86</v>
       </c>
       <c r="H69" s="17">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="I69" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="70" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F70" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="3:19" x14ac:dyDescent="0.35">
       <c r="G70" s="1" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
       <c r="H70" s="17">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="I70" s="1">
         <v>2</v>
@@ -2930,12 +3077,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="71" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="71" spans="3:19" x14ac:dyDescent="0.35">
       <c r="G71" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H71" s="17">
-        <v>8</v>
+        <v>41</v>
+      </c>
+      <c r="H71" s="1">
+        <v>20</v>
       </c>
       <c r="I71" s="1">
         <v>2</v>
@@ -2944,12 +3091,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="72" spans="4:19" x14ac:dyDescent="0.35">
+    <row r="72" spans="3:19" x14ac:dyDescent="0.35">
       <c r="G72" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H72" s="1">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="H72" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="I72" s="1">
         <v>2</v>
@@ -2958,119 +3105,125 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="G73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="I73" s="1">
+    <row r="73" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="F73" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" s="1">
+        <v>8</v>
+      </c>
+      <c r="I73" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="K73" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="K74" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="D76" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="77" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J77" s="19"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="78" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="E78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="1">
+        <v>6</v>
+      </c>
+      <c r="H78" s="1">
+        <v>1</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L78" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q78" s="50" t="s">
+        <v>150</v>
+      </c>
+      <c r="S78" s="50" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="F79" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="G79" s="17">
+        <v>6</v>
+      </c>
+      <c r="H79" s="17">
         <v>2</v>
       </c>
-      <c r="J73" s="1" t="s">
+      <c r="I79" s="17" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="74" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="F74" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="H74" s="1">
+      <c r="J79" s="12"/>
+      <c r="K79" s="12"/>
+    </row>
+    <row r="80" spans="3:19" x14ac:dyDescent="0.35">
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F80" s="44" t="s">
+        <v>138</v>
+      </c>
+      <c r="G80" s="17">
         <v>8</v>
       </c>
-      <c r="I74" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="K74" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="75" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="K75" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="D77" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="78" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E78" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I78" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J78" s="19"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="79" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="E79" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="G79" s="1">
-        <v>6</v>
-      </c>
-      <c r="H79" s="1">
+      <c r="H80" s="17">
         <v>1</v>
       </c>
-      <c r="I79" s="1" t="s">
+      <c r="I80" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L79" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q79" s="50" t="s">
-        <v>156</v>
-      </c>
-      <c r="S79" s="50" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="80" spans="4:19" x14ac:dyDescent="0.35">
-      <c r="F80" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="G80" s="17">
-        <v>6</v>
-      </c>
-      <c r="H80" s="17">
-        <v>2</v>
-      </c>
-      <c r="I80" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="J80" s="12"/>
-      <c r="K80" s="12"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.35">
+      <c r="L80" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="81" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
-      <c r="E81" s="17" t="s">
-        <v>58</v>
-      </c>
+      <c r="E81" s="17"/>
       <c r="F81" s="44" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G81" s="17">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H81" s="17">
         <v>1</v>
@@ -3078,29 +3231,20 @@
       <c r="I81" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="L81" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C82" s="17"/>
       <c r="D82" s="17"/>
       <c r="E82" s="17"/>
-      <c r="F82" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="G82" s="17">
-        <v>15</v>
-      </c>
-      <c r="H82" s="17">
-        <v>1</v>
-      </c>
-      <c r="I82" s="17" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C83" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
+      <c r="H82" s="17"/>
+      <c r="I82" s="17"/>
+    </row>
+    <row r="83" spans="3:9" x14ac:dyDescent="0.35">
+      <c r="C83" s="44" t="s">
+        <v>140</v>
+      </c>
       <c r="D83" s="17"/>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
@@ -3108,9 +3252,9 @@
       <c r="H83" s="17"/>
       <c r="I83" s="17"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="3:9" x14ac:dyDescent="0.35">
       <c r="C84" s="44" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D84" s="17"/>
       <c r="E84" s="17"/>
@@ -3119,22 +3263,11 @@
       <c r="H84" s="17"/>
       <c r="I84" s="17"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.35">
-      <c r="C85" s="44" t="s">
-        <v>141</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17"/>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
-  <conditionalFormatting sqref="A63">
+  <phoneticPr fontId="13" type="noConversion"/>
+  <conditionalFormatting sqref="A62">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
-      <formula>LEN(TRIM(A63))&gt;0</formula>
+      <formula>LEN(TRIM(A62))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3392,17 +3525,17 @@
       <c r="K14" s="15"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.35"/>
@@ -3432,8 +3565,29 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="6" spans="1:12" s="40" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="71" t="s">
+        <v>159</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="41" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C8" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="39">
+        <v>1.5</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>